--- a/Dependencies/Config.xlsx
+++ b/Dependencies/Config.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\CARPIN\RPA\CAR-Contrarecibos\CAR-Contrarecibos\Dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBAD090-AC54-4882-B635-27B7765C9F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7DF17F-D155-49B2-84ED-E9F1EEF4BBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24825" windowHeight="13710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28905" yWindow="555" windowWidth="11520" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CentroCostos" sheetId="1" r:id="rId1"/>
-    <sheet name="Contable" sheetId="2" r:id="rId2"/>
+    <sheet name="Contabilidad" sheetId="2" r:id="rId2"/>
+    <sheet name="RESICO" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
-  <si>
-    <t>CentroCostos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="711">
   <si>
     <t>TipoMov</t>
   </si>
@@ -64,13 +62,2104 @@
     <t>1290-0002-0015</t>
   </si>
   <si>
-    <t>RESICO</t>
-  </si>
-  <si>
     <t>1290-0001-0039</t>
   </si>
   <si>
     <t>1290-0002-0043</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>415</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>491</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>594</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>596</t>
+  </si>
+  <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>818</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>821</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>823</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>825</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>827</t>
+  </si>
+  <si>
+    <t>828</t>
+  </si>
+  <si>
+    <t>829</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>CONS ADMON 1</t>
+  </si>
+  <si>
+    <t>CONS ADMON 2</t>
+  </si>
+  <si>
+    <t>DIRECCION DE ADMON Y FINANZAS</t>
+  </si>
+  <si>
+    <t>AUDITORIA TECNICA Y PROYECTOS ESPECIALES</t>
+  </si>
+  <si>
+    <t>FRENTES FORANEOS</t>
+  </si>
+  <si>
+    <t>DIRECCION COMERCIAL</t>
+  </si>
+  <si>
+    <t>DIRECCION DE CONSTRUCCION</t>
+  </si>
+  <si>
+    <t>DIR GRAL</t>
+  </si>
+  <si>
+    <t>DIRECCION DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>DIRECCION DE PRESUPUESTO Y ADQUISICIONES</t>
+  </si>
+  <si>
+    <t>DIRECCION DE RELACIONES INSTITUCIONALES</t>
+  </si>
+  <si>
+    <t>DIRECCION DE EXPANSION Y DIVERSIFICACION</t>
+  </si>
+  <si>
+    <t>PRELIMINARES</t>
+  </si>
+  <si>
+    <t>SERVICIOS CONSTRUCCION GRAVADOS</t>
+  </si>
+  <si>
+    <t>BODEGA GRUMAX</t>
+  </si>
+  <si>
+    <t>OBRAS UNIVERSALES</t>
+  </si>
+  <si>
+    <t>COSTO MULCC</t>
+  </si>
+  <si>
+    <t>LA PALMA URBA</t>
+  </si>
+  <si>
+    <t>LA PALMA EDIFICACION</t>
+  </si>
+  <si>
+    <t>LA PALMA 2da EDIFICACION</t>
+  </si>
+  <si>
+    <t>LA PALMA 2da OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>LA PALMA 2da REPROCESOS</t>
+  </si>
+  <si>
+    <t>LA PALMA 2da OBRA NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>TERRENO REMANENTE LA PALMA</t>
+  </si>
+  <si>
+    <t>LOMAS VERDES EXTRA</t>
+  </si>
+  <si>
+    <t>TERRENO LOMAS VERDES</t>
+  </si>
+  <si>
+    <t>LOS ARCOS OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>LOS ARCOS REPROCESOS</t>
+  </si>
+  <si>
+    <t>LOS ARCOS OBRA NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>PLAZA LOS ARCOS</t>
+  </si>
+  <si>
+    <t>CALABRIA</t>
+  </si>
+  <si>
+    <t>PLANTA DE TRATAMIENTO CLUB DE GOLF</t>
+  </si>
+  <si>
+    <t>VILLAS FORTIN URB.</t>
+  </si>
+  <si>
+    <t>VILLAS FORTIN VIVIENDA</t>
+  </si>
+  <si>
+    <t>VILLAS FORTIN OFICINA DE VENTAS</t>
+  </si>
+  <si>
+    <t>CARRETERA CARRIL DER. AV. VILLASFORTIN</t>
+  </si>
+  <si>
+    <t>VILLA DE LAS ANIMAS OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>VILLA DE LAS ANIMAS REPROCESOS</t>
+  </si>
+  <si>
+    <t>VILLA DE LAS ANIMAS OBRA NOPRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>VILLAS DE LAS FLORES (URBANIZACION)</t>
+  </si>
+  <si>
+    <t>VILLAS DE LAS FLORES (EDIFICACION)</t>
+  </si>
+  <si>
+    <t>VILLAS DE LA LLAVE I EDIF</t>
+  </si>
+  <si>
+    <t>VILLAS DE LA LLAVE II EDIF</t>
+  </si>
+  <si>
+    <t>VILLAS SANTA MARIA EDIF</t>
+  </si>
+  <si>
+    <t>VILLAS SANTA MARIA URBA</t>
+  </si>
+  <si>
+    <t>VILLA DE LAS ANIMAS (VIVIENDA)</t>
+  </si>
+  <si>
+    <t>VALLE ALEGRE URBANIZACION</t>
+  </si>
+  <si>
+    <t>VALLE ALEGRE EDIFICACION</t>
+  </si>
+  <si>
+    <t>VALLE ALEGRE OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>VALLE ALEGRE REPROCESOS</t>
+  </si>
+  <si>
+    <t>VALLE ALEGRE OBRA NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>VILLAS DE SAN ISIDRO VIVIENDA</t>
+  </si>
+  <si>
+    <t>VILLA SAN ISIDRO OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>VILLAS SAN ISIDRO REPROCESOS</t>
+  </si>
+  <si>
+    <t>VILLAS SAN ISIDRO OBRA NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>PLAZA VALLE ALEGRE</t>
+  </si>
+  <si>
+    <t>VALLE ALEGRE LA VISTA URBANIZACION</t>
+  </si>
+  <si>
+    <t>VALLE ALEGRE LA VISTA EDIFICACION</t>
+  </si>
+  <si>
+    <t>LOCALES PLAZA LA VISTA</t>
+  </si>
+  <si>
+    <t>TORRE AGUILA 40 VIV. VALEGRE II</t>
+  </si>
+  <si>
+    <t>VALLE ALEGRE 3 VIVIENDA</t>
+  </si>
+  <si>
+    <t>PRIVADA OYAMEL URBANIZACION</t>
+  </si>
+  <si>
+    <t>PRIVADA OYAMEL EDIFICACION</t>
+  </si>
+  <si>
+    <t>PRIVADA NEVADA URB</t>
+  </si>
+  <si>
+    <t>PRIVADA NEVADA EDIFICACION</t>
+  </si>
+  <si>
+    <t>LOCALES PRIVADA NEVADA</t>
+  </si>
+  <si>
+    <t>PRIVADA LAUREL URBANIZACION</t>
+  </si>
+  <si>
+    <t>PRIVADA LAUREL EDIFICACION</t>
+  </si>
+  <si>
+    <t>VILLAS DEL SOL URBA</t>
+  </si>
+  <si>
+    <t>VILLAS DEL SOL EDIF</t>
+  </si>
+  <si>
+    <t>EL LIMONAR URBA</t>
+  </si>
+  <si>
+    <t>EL LIMONAR EDIF</t>
+  </si>
+  <si>
+    <t>SANTA ANA BOCA URBANIZACION</t>
+  </si>
+  <si>
+    <t>SANTA ANA BOCA EDIFICACION</t>
+  </si>
+  <si>
+    <t>PRIV RIVIERA DEL DORADO URBANIZACION</t>
+  </si>
+  <si>
+    <t>PRIV. RIVIERA DEL DORADO EDIFICACION</t>
+  </si>
+  <si>
+    <t>LOC COMERC. PRIV. RIVERA DEL DORADO</t>
+  </si>
+  <si>
+    <t>LA PARROQUIA URBANIZACION</t>
+  </si>
+  <si>
+    <t>LA PARROQUIA VIVIENDA</t>
+  </si>
+  <si>
+    <t>LIENZO DEL MAR URBANIZACION</t>
+  </si>
+  <si>
+    <t>LIENZO DEL MAR EDIFICACION</t>
+  </si>
+  <si>
+    <t>LOCALES LIENZO DEL MAR</t>
+  </si>
+  <si>
+    <t>PORTO ALEGRE</t>
+  </si>
+  <si>
+    <t>TORRES SANTA BÁRBARA URBANIZACION</t>
+  </si>
+  <si>
+    <t>TORRES SANTA BARBARA VIVIENDA</t>
+  </si>
+  <si>
+    <t>VALLE ALTO PUEBLA URBA</t>
+  </si>
+  <si>
+    <t>VALLE ALTO PUEBLA EDIF</t>
+  </si>
+  <si>
+    <t>TERRENO CIRCUITO ABRUZO EN PUEBLA</t>
+  </si>
+  <si>
+    <t>GRAN VALLE URBANIZACION</t>
+  </si>
+  <si>
+    <t>GRAN VALLE EDIFICACION</t>
+  </si>
+  <si>
+    <t>LA CONCORDIA URBANIZACION</t>
+  </si>
+  <si>
+    <t>LA CONCORDIA VIVIENDA</t>
+  </si>
+  <si>
+    <t>LA CONCORDIA OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>LA CONCORDIA REPROCESOS</t>
+  </si>
+  <si>
+    <t>LA CONCORDIA OBRA NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>CABO ROJO OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>CABO ROJO REPROCESOS</t>
+  </si>
+  <si>
+    <t>CABO ROJO OBRA NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>CABO ROJO URBANIZACION</t>
+  </si>
+  <si>
+    <t>CABO ROJO EDIFICACION</t>
+  </si>
+  <si>
+    <t>CAMPO REAL I URBA</t>
+  </si>
+  <si>
+    <t>CAMPO REAL I EDIF</t>
+  </si>
+  <si>
+    <t>CAMPO REAL II URBA</t>
+  </si>
+  <si>
+    <t>CAMPO REAL II EDIF</t>
+  </si>
+  <si>
+    <t>EL TAJIN</t>
+  </si>
+  <si>
+    <t>CABO ALTO URBANIZACION</t>
+  </si>
+  <si>
+    <t>CABO ALTO EDIFICACION</t>
+  </si>
+  <si>
+    <t>CABO ALTO OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>CABO ALTO REPROCESOS</t>
+  </si>
+  <si>
+    <t>CABO ALTO OBRA NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>PLAZA COMERCIAL CABO ALTO</t>
+  </si>
+  <si>
+    <t>CABO ALTO 24 URBANIZACION</t>
+  </si>
+  <si>
+    <t>CABO ALTO 24 EDIFICACION</t>
+  </si>
+  <si>
+    <t>PLAYA AZUL URBANIZACION</t>
+  </si>
+  <si>
+    <t>PLAYA AZUL EDIFICACION</t>
+  </si>
+  <si>
+    <t>EDIFICIO LAZARO CARDENAS VIVIENDA</t>
+  </si>
+  <si>
+    <t>GRAN CABO URBANIZACION</t>
+  </si>
+  <si>
+    <t>GRAN CABO EDIFICACION</t>
+  </si>
+  <si>
+    <t>OFICINAS VENTAS GRAN CABO</t>
+  </si>
+  <si>
+    <t>TORRE AGUILA HERR URB</t>
+  </si>
+  <si>
+    <t>TORRE AGUILA HERR VIV</t>
+  </si>
+  <si>
+    <t>TORRE AGUILA ANAHUAC</t>
+  </si>
+  <si>
+    <t>TORRE AGUILA MERIDA</t>
+  </si>
+  <si>
+    <t>POSADAS ARCO SUR URB</t>
+  </si>
+  <si>
+    <t>EDIFICIO POMONA</t>
+  </si>
+  <si>
+    <t>TORRE AGUILA ARCO SUR</t>
+  </si>
+  <si>
+    <t>TORRE AGUILA ARCOS SUR NO PRESPUESTADA</t>
+  </si>
+  <si>
+    <t>RINCON DE LA CANTERA</t>
+  </si>
+  <si>
+    <t>RINCON DE LA CANTERA NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>RINCON DE LA CANTERA REPROCESOS</t>
+  </si>
+  <si>
+    <t>RINCON DE LA CANTERA OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>TORRES VERAMAR EDIF</t>
+  </si>
+  <si>
+    <t>TORRE HALCON</t>
+  </si>
+  <si>
+    <t>LOCAL COMERCIAL TORRE HALCON</t>
+  </si>
+  <si>
+    <t>TORRE HALCON ***FASTI***</t>
+  </si>
+  <si>
+    <t>VILLAS ARCOSUR OBRA NO PRESUPUEST</t>
+  </si>
+  <si>
+    <t>VILLAS ARCO SUR VIVIENDA</t>
+  </si>
+  <si>
+    <t>VILLAS ARCOSUR URBANIZACION</t>
+  </si>
+  <si>
+    <t>VILLAS ARCO SUR REPROCESOS</t>
+  </si>
+  <si>
+    <t>VILLAS ARCO SUR OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>DEPTO MUESTRA RESIDENCIAL HALCON</t>
+  </si>
+  <si>
+    <t>RESIDENCIAL HALCON</t>
+  </si>
+  <si>
+    <t>LA CANTERA RESIDENCIAL EDIFICACION</t>
+  </si>
+  <si>
+    <t>LA CANTERA RESIDENCIAL OBRA NO PRESUP</t>
+  </si>
+  <si>
+    <t>LA CANTERA RESIDENCIAL REPROCESOS</t>
+  </si>
+  <si>
+    <t>LA CANTERAOBRA EXTRA</t>
+  </si>
+  <si>
+    <t>AREA COMERCIAL VILLAS ARCOSUR</t>
+  </si>
+  <si>
+    <t>TORRE ALBATROS</t>
+  </si>
+  <si>
+    <t>TORRE ALBATROS OBRA NO PRESUP</t>
+  </si>
+  <si>
+    <t>TORRE ALBATROS REPROCESOS</t>
+  </si>
+  <si>
+    <t>TORRE ALBATROS OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>TORRE CONDOR</t>
+  </si>
+  <si>
+    <t>TORRE CONDOR OBRA NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>TORRE CONDOR REPROCESOS</t>
+  </si>
+  <si>
+    <t>TORRE CONDOR OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>TORRE AGUILA</t>
+  </si>
+  <si>
+    <t>TORRE AGUILA OBRA NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>TORRE AGUILA REPROCESOS</t>
+  </si>
+  <si>
+    <t>TORE AGUILA OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>CONDOMINIO HORIZONTAL LOS CANTAROS</t>
+  </si>
+  <si>
+    <t>ARGOS RESIDENCIALVIVIENDA</t>
+  </si>
+  <si>
+    <t>ARGOS RESIDENCIAL OBRA NO PRESUP</t>
+  </si>
+  <si>
+    <t>ARGOS RESIDENCIAL REPROCESOS</t>
+  </si>
+  <si>
+    <t>ARGOS RESIDENCIAL OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>LOS CANTAROS URBANIZACION</t>
+  </si>
+  <si>
+    <t>LOS CANTAROS VIVIENDA</t>
+  </si>
+  <si>
+    <t>LOS CANTAROS OBRA NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>LOS CANTAROS REPROCESOS</t>
+  </si>
+  <si>
+    <t>LOS CANTAROS OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>ARGOS RESIDENCIAL URBANIZACION</t>
+  </si>
+  <si>
+    <t>FASTI LOS CANTAROS</t>
+  </si>
+  <si>
+    <t>FASTI ARGOS RESIDENCIAL</t>
+  </si>
+  <si>
+    <t>LA PRADERA **MANZANA 4**</t>
+  </si>
+  <si>
+    <t>LA PRADERA **MANZANA 3**</t>
+  </si>
+  <si>
+    <t>LA PRADERA ** MANZANA 2 **</t>
+  </si>
+  <si>
+    <t>LA PRADERA **MANZANA 1**</t>
+  </si>
+  <si>
+    <t>LA PRADERA ** PIPSA **</t>
+  </si>
+  <si>
+    <t>LA PRADERA -**CFE**-</t>
+  </si>
+  <si>
+    <t>LA PRADERA (ESCUELA)</t>
+  </si>
+  <si>
+    <t>LA MARQUESA EDIF</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA HACIENDA URBA</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA HACIENDA EDIF</t>
+  </si>
+  <si>
+    <t>LA PRADERA EDIFICACION</t>
+  </si>
+  <si>
+    <t>LA PRADERA URBANIZACION</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA HACIENDA 2 URBANIZACION</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA HACIENDA 2 EDIFICACION</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA HACIENDA TUBERIAS</t>
+  </si>
+  <si>
+    <t>GRAVILEAS II</t>
+  </si>
+  <si>
+    <t>GRAVILEAS BARDAS</t>
+  </si>
+  <si>
+    <t>GRAVILEAS URBA</t>
+  </si>
+  <si>
+    <t>GRAVILEAS EDIF</t>
+  </si>
+  <si>
+    <t>CASCADAS URBA</t>
+  </si>
+  <si>
+    <t>CASCADAS EDIF</t>
+  </si>
+  <si>
+    <t>LOMAS VERDES EDIF</t>
+  </si>
+  <si>
+    <t>PLAZA LOMAS VERDES EDIF</t>
+  </si>
+  <si>
+    <t>LUCAS MARTIN URBA</t>
+  </si>
+  <si>
+    <t>LUCAS MARTIN EDIF</t>
+  </si>
+  <si>
+    <t>VALLE REAL INDUSTRIAL URB</t>
+  </si>
+  <si>
+    <t>VALLE REAL INDUSTRIAL EDIF/URBA</t>
+  </si>
+  <si>
+    <t>LA HACIENDA I EDIF</t>
+  </si>
+  <si>
+    <t>LA HACIENDA II EDIF</t>
+  </si>
+  <si>
+    <t>LINDA VISTA ANIMAS URBANIZACION</t>
+  </si>
+  <si>
+    <t>LINDA VISTA ANIMAS VIVIENDA</t>
+  </si>
+  <si>
+    <t>LINDA VISTA ANIMAS NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>EL CAMPANARIO</t>
+  </si>
+  <si>
+    <t>BODEGAS VALLE REAL</t>
+  </si>
+  <si>
+    <t>LINDA VISTA ANIMAS REPROCESOS</t>
+  </si>
+  <si>
+    <t>LINDA VISTA ANIMAS OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>LA LAGUNA EDIF</t>
+  </si>
+  <si>
+    <t>TORRE LINDAVISTA EDIF</t>
+  </si>
+  <si>
+    <t>TORRE LINDAVISTA NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>TORRE LINDA VISTA REPROCESOS</t>
+  </si>
+  <si>
+    <t>TORRE LINDA VISTA OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>EL PREDIO HIDALGO EDIF</t>
+  </si>
+  <si>
+    <t>PAVIMENTACION CALLE CIRCUITO INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>LOMAS VERDES BANORTE EDIF</t>
+  </si>
+  <si>
+    <t>LOMAS VERDES HAKIM EDIF</t>
+  </si>
+  <si>
+    <t>SAN CARLOS</t>
+  </si>
+  <si>
+    <t>SAN BUENAVENTURA</t>
+  </si>
+  <si>
+    <t>EL OLMO</t>
+  </si>
+  <si>
+    <t>TLALCUALEYA</t>
+  </si>
+  <si>
+    <t>LINEA DE ALIMENTACION AGUA POTABLE</t>
+  </si>
+  <si>
+    <t>SETSE</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD VERACRUZANA</t>
+  </si>
+  <si>
+    <t>OFICINAS IGI</t>
+  </si>
+  <si>
+    <t>LUCAS MARTIN ZONA N</t>
+  </si>
+  <si>
+    <t>LAS CASCADAS A</t>
+  </si>
+  <si>
+    <t>L.HDAII M-4</t>
+  </si>
+  <si>
+    <t>LIC. MARTIN</t>
+  </si>
+  <si>
+    <t>EL PEDREGAL URBANIZACION</t>
+  </si>
+  <si>
+    <t>EL PEDREGAL VIVIENDA</t>
+  </si>
+  <si>
+    <t>LOS ARCOS VIVIENDA</t>
+  </si>
+  <si>
+    <t>LOS ARCOS URBANIZACION</t>
+  </si>
+  <si>
+    <t>MARQUESA FERNANDEZ</t>
+  </si>
+  <si>
+    <t>L.HDAII M-3</t>
+  </si>
+  <si>
+    <t>TERRENO BARRANCA</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA HACIENDA II MANZANA 5</t>
+  </si>
+  <si>
+    <t>VALLE REAL INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA PRADERA URBANIZACION</t>
+  </si>
+  <si>
+    <t>INTEXA</t>
+  </si>
+  <si>
+    <t>AGUAS TRATADAS DE XALAPA</t>
+  </si>
+  <si>
+    <t>PLAZA ALAMOS (LOCALES)</t>
+  </si>
+  <si>
+    <t>CASA CLUB BOSQUE DE NIEBLA</t>
+  </si>
+  <si>
+    <t>FUNDACION CASA NUEVA</t>
+  </si>
+  <si>
+    <t>PLAZA LA PRADERA</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA PRADERA MZA 20</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA PRADERA REPROCESOS</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA PRADERA EDIFICACION</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA PRADERA OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>LOMAS PRADERA OBRA NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA PRADERA 2</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA PRADERA MZA 20A</t>
+  </si>
+  <si>
+    <t>PLAZA PRADERA 2 (LOCALES)</t>
+  </si>
+  <si>
+    <t>PLAZA PRADERA OBRA NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>DETALLES A TU MEDIDA</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA PRADERA 3</t>
+  </si>
+  <si>
+    <t>PLAZA SANTA CECILIA URBA</t>
+  </si>
+  <si>
+    <t>PLAZA SANTA CECILIA</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTOS PLAZA LAGUNA</t>
+  </si>
+  <si>
+    <t>VALLE REAL CANARIOS VIVIENDA</t>
+  </si>
+  <si>
+    <t>VALLE REAL CANARIOS  NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>LA ORQUIDEA</t>
+  </si>
+  <si>
+    <t>TORRE AGUILA VALLEREAL VIVIENDA</t>
+  </si>
+  <si>
+    <t>TORRE AGUILA VALLE REAL NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>TORRE AGUILA VALLE REAL OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>VALLE REAL HABITACIONAL URBA</t>
+  </si>
+  <si>
+    <t>VALLE REAL HABITACIONAL VIVIENDA</t>
+  </si>
+  <si>
+    <t>VALLE REAL HABITACIONAL NO PRESUP</t>
+  </si>
+  <si>
+    <t>VALLE REAL HABITACIONAL REPROCESOS</t>
+  </si>
+  <si>
+    <t>VALLE REAL HABITACIONAL OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>VALLE REAL ESCUELA</t>
+  </si>
+  <si>
+    <t>PLAZA VALLE REAL</t>
+  </si>
+  <si>
+    <t>PLAZA VALLE REAL NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>LOTES COMERC. RESERVA 1 VREAL</t>
+  </si>
+  <si>
+    <t>VALLE REAL 50</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA PRADERA 2DA ET URBANIZACION</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA PRADERA 2DA ET VIVIENDA</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA PRADERA 2DA ET NO PRESUPUEST</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA PRADERA 2DA ET REPROCESOS</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA PRADERA 2DA ET OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>LAS COLINAS URBANIZACION</t>
+  </si>
+  <si>
+    <t>LAS COLINAS EDIFICACION</t>
+  </si>
+  <si>
+    <t>TORRE ALBATROS COLINAS</t>
+  </si>
+  <si>
+    <t>PLAZA COLINAS</t>
+  </si>
+  <si>
+    <t>LAS COLINAS OFICINA DE VENTAS</t>
+  </si>
+  <si>
+    <t>LA CIMA URBANIZACION</t>
+  </si>
+  <si>
+    <t>LA CIMA EDIFICACION</t>
+  </si>
+  <si>
+    <t>LA CIMA NO PRESUPUESTADA</t>
+  </si>
+  <si>
+    <t>LA CIMA REPROCESOS</t>
+  </si>
+  <si>
+    <t>LA CIMA OBRA EXTRA</t>
+  </si>
+  <si>
+    <t>TORRES NATURA</t>
+  </si>
+  <si>
+    <t>RINCON DEL AGUILA</t>
+  </si>
+  <si>
+    <t>ZONA COMERCIAL CENTRO DE BARRIO</t>
+  </si>
+  <si>
+    <t>TORRE IMPERIAL</t>
+  </si>
+  <si>
+    <t>CENTROBARRIOTERRANOVA URBANIZACION</t>
+  </si>
+  <si>
+    <t>TERRANOVA URBANIZACION</t>
+  </si>
+  <si>
+    <t>TERRANOVA VIVIENDA</t>
+  </si>
+  <si>
+    <t>TERRANOVA OFICINA DE VENTAS</t>
+  </si>
+  <si>
+    <t>PLAZA TERRANOVA</t>
+  </si>
+  <si>
+    <t>TANQUE ELEVADO NATURA (TERRANOVA)</t>
+  </si>
+  <si>
+    <t>LA CIMA 2</t>
+  </si>
+  <si>
+    <t>PLAZA LA CIMA</t>
+  </si>
+  <si>
+    <t>PLAZA LA CIMA 2DA ETAPA</t>
+  </si>
+  <si>
+    <t>TERRENO "EL CHICO"</t>
+  </si>
+  <si>
+    <t>COLONIA AGRICOLA</t>
+  </si>
+  <si>
+    <t>CENTRO DE BARRIO VIVIENDA</t>
+  </si>
+  <si>
+    <t>TORRE AGUILA OCHO</t>
+  </si>
+  <si>
+    <t>LOCALES TORRE AGUILA OCHO</t>
+  </si>
+  <si>
+    <t>TERRANOVA 2DA MACROETAPA URBANIZACION</t>
+  </si>
+  <si>
+    <t>TERRANOVA 2DA MACROETAPA EDIFICACION</t>
+  </si>
+  <si>
+    <t>ESCUELA GALILEO TERRANOVA</t>
+  </si>
+  <si>
+    <t>TERRENO LA CONCHA</t>
+  </si>
+  <si>
+    <t>CAMACHO 191</t>
+  </si>
+  <si>
+    <t>PLAZA CAMACHO 191</t>
+  </si>
+  <si>
+    <t>TERRENO BAQUEIRO</t>
+  </si>
+  <si>
+    <t>TERRENO BACHOCO LENCERO</t>
+  </si>
+  <si>
+    <t>TERRANOVA LOCALES 2</t>
+  </si>
+  <si>
+    <t>VILLA DE LAS ANIMAS POSTVENTA</t>
+  </si>
+  <si>
+    <t>EL PEDREGAL POSTVENTA</t>
+  </si>
+  <si>
+    <t>VILLA DE LAS FLORES POSTVENTA</t>
+  </si>
+  <si>
+    <t>LA PALMA SEGUNDA ETAPA POSTVENTA</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA HDA II POSTVENTA</t>
+  </si>
+  <si>
+    <t>LA PRADERA POSTVENTA</t>
+  </si>
+  <si>
+    <t>CABO ROJO POSTVENTA</t>
+  </si>
+  <si>
+    <t>TORRE HALCON POSTVENTA</t>
+  </si>
+  <si>
+    <t>LOMAS DE LA PRADERA POSTVENTA</t>
+  </si>
+  <si>
+    <t>LOS ARCOS POSTVENTA</t>
+  </si>
+  <si>
+    <t>VILLAS ARCOSUR POSTVENTA</t>
+  </si>
+  <si>
+    <t>VILLAS SN ISIDRO POSTVENTA</t>
+  </si>
+  <si>
+    <t>LOS CANTAROS POST VENTA</t>
+  </si>
+  <si>
+    <t>LA CANTERA POST VENTA</t>
+  </si>
+  <si>
+    <t>VALLE REAL HABITACIONAL POST VENTA</t>
+  </si>
+  <si>
+    <t>LOMAS PRADERA 2 POSTVENTA</t>
+  </si>
+  <si>
+    <t>TORRE ALBATROS POSTVENTA</t>
+  </si>
+  <si>
+    <t>CABO ALTO POSTVENTA</t>
+  </si>
+  <si>
+    <t>ARGOS RESIDENCIAL POSTVENTA</t>
+  </si>
+  <si>
+    <t>VALLE ALEGRE POSTVENTA</t>
+  </si>
+  <si>
+    <t>TORRE AGUILA ARCO SUR POST VENTA</t>
+  </si>
+  <si>
+    <t>LINDA VISTA POSTVENTA</t>
+  </si>
+  <si>
+    <t>LA CIMA POSTVENTA</t>
+  </si>
+  <si>
+    <t>SANTA ANA BOCA POSTVENTA</t>
+  </si>
+  <si>
+    <t>TERRANOVA POSTVENTA</t>
+  </si>
+  <si>
+    <t>VALLE ALEGRE LA VISTA POSTVENTA</t>
+  </si>
+  <si>
+    <t>TORRE IMPERIAL POSTVENTA</t>
+  </si>
+  <si>
+    <t>COLINAS POSTVENTA</t>
+  </si>
+  <si>
+    <t>GRAN VALLE POSTVENTA</t>
+  </si>
+  <si>
+    <t>Urba</t>
+  </si>
+  <si>
+    <t>Edifica</t>
+  </si>
+  <si>
+    <t>CCO</t>
   </si>
 </sst>
 </file>
@@ -389,60 +2478,3136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D349"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>367</v>
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>368</v>
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>369</v>
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
         <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>100</v>
+      </c>
+      <c r="D89" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>105</v>
+      </c>
+      <c r="D94" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>107</v>
+      </c>
+      <c r="D96" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>109</v>
+      </c>
+      <c r="D98" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>117</v>
+      </c>
+      <c r="D106" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>120</v>
+      </c>
+      <c r="D109" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>128</v>
+      </c>
+      <c r="D117" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>131</v>
+      </c>
+      <c r="D120" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>134</v>
+      </c>
+      <c r="D123" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>135</v>
+      </c>
+      <c r="D124" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>137</v>
+      </c>
+      <c r="D126" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>138</v>
+      </c>
+      <c r="D127" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>139</v>
+      </c>
+      <c r="D128" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+      <c r="D129" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>141</v>
+      </c>
+      <c r="D130" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>144</v>
+      </c>
+      <c r="D133" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>145</v>
+      </c>
+      <c r="D134" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>146</v>
+      </c>
+      <c r="D135" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>147</v>
+      </c>
+      <c r="D136" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>148</v>
+      </c>
+      <c r="D137" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>151</v>
+      </c>
+      <c r="D140" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>152</v>
+      </c>
+      <c r="D141" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>153</v>
+      </c>
+      <c r="D142" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>154</v>
+      </c>
+      <c r="D143" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>156</v>
+      </c>
+      <c r="D145" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>157</v>
+      </c>
+      <c r="D146" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>158</v>
+      </c>
+      <c r="D147" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>159</v>
+      </c>
+      <c r="D148" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>160</v>
+      </c>
+      <c r="D149" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>161</v>
+      </c>
+      <c r="D150" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>162</v>
+      </c>
+      <c r="D151" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>163</v>
+      </c>
+      <c r="D152" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>164</v>
+      </c>
+      <c r="D153" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>165</v>
+      </c>
+      <c r="D154" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>166</v>
+      </c>
+      <c r="D155" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>167</v>
+      </c>
+      <c r="D156" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>168</v>
+      </c>
+      <c r="D157" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>169</v>
+      </c>
+      <c r="D158" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>170</v>
+      </c>
+      <c r="D159" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>171</v>
+      </c>
+      <c r="D160" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>172</v>
+      </c>
+      <c r="D161" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>174</v>
+      </c>
+      <c r="D163" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>175</v>
+      </c>
+      <c r="D164" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>176</v>
+      </c>
+      <c r="D165" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>177</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="D166" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>178</v>
+      </c>
+      <c r="B167">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>179</v>
+      </c>
+      <c r="D168" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>180</v>
+      </c>
+      <c r="D169" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>181</v>
+      </c>
+      <c r="D170" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>182</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="D171" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>183</v>
+      </c>
+      <c r="D172" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>184</v>
+      </c>
+      <c r="D173" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>185</v>
+      </c>
+      <c r="D174" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>186</v>
+      </c>
+      <c r="D175" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>187</v>
+      </c>
+      <c r="D176" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>188</v>
+      </c>
+      <c r="D177" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>189</v>
+      </c>
+      <c r="D178" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>190</v>
+      </c>
+      <c r="D179" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>191</v>
+      </c>
+      <c r="D180" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>192</v>
+      </c>
+      <c r="D181" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>193</v>
+      </c>
+      <c r="B182">
+        <v>5</v>
+      </c>
+      <c r="D182" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>194</v>
+      </c>
+      <c r="B183">
+        <v>6</v>
+      </c>
+      <c r="D183" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>195</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>196</v>
+      </c>
+      <c r="B185">
+        <v>6</v>
+      </c>
+      <c r="D185" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>197</v>
+      </c>
+      <c r="B186">
+        <v>5</v>
+      </c>
+      <c r="D186" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>198</v>
+      </c>
+      <c r="B187">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>199</v>
+      </c>
+      <c r="D188" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>200</v>
+      </c>
+      <c r="D189" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>201</v>
+      </c>
+      <c r="D190" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>202</v>
+      </c>
+      <c r="B191">
+        <v>5</v>
+      </c>
+      <c r="D191" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>203</v>
+      </c>
+      <c r="B192">
+        <v>6</v>
+      </c>
+      <c r="D192" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>204</v>
+      </c>
+      <c r="B193">
+        <v>5</v>
+      </c>
+      <c r="D193" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>205</v>
+      </c>
+      <c r="B194">
+        <v>6</v>
+      </c>
+      <c r="D194" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>206</v>
+      </c>
+      <c r="D195" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>207</v>
+      </c>
+      <c r="D196" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>208</v>
+      </c>
+      <c r="B197">
+        <v>5</v>
+      </c>
+      <c r="D197" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>209</v>
+      </c>
+      <c r="B198">
+        <v>6</v>
+      </c>
+      <c r="D198" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>210</v>
+      </c>
+      <c r="B199">
+        <v>5</v>
+      </c>
+      <c r="D199" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>211</v>
+      </c>
+      <c r="B200">
+        <v>6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>212</v>
+      </c>
+      <c r="B201">
+        <v>6</v>
+      </c>
+      <c r="D201" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>213</v>
+      </c>
+      <c r="B202">
+        <v>6</v>
+      </c>
+      <c r="D202" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>214</v>
+      </c>
+      <c r="B203">
+        <v>5</v>
+      </c>
+      <c r="D203" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>215</v>
+      </c>
+      <c r="B204">
+        <v>6</v>
+      </c>
+      <c r="D204" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>216</v>
+      </c>
+      <c r="D205" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>217</v>
+      </c>
+      <c r="D206" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>218</v>
+      </c>
+      <c r="D207" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>219</v>
+      </c>
+      <c r="D208" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>220</v>
+      </c>
+      <c r="D209" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>221</v>
+      </c>
+      <c r="D210" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>222</v>
+      </c>
+      <c r="D211" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>223</v>
+      </c>
+      <c r="D212" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>224</v>
+      </c>
+      <c r="D213" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>225</v>
+      </c>
+      <c r="D214" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>226</v>
+      </c>
+      <c r="D215" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>227</v>
+      </c>
+      <c r="D216" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>228</v>
+      </c>
+      <c r="D217" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>229</v>
+      </c>
+      <c r="D218" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>230</v>
+      </c>
+      <c r="D219" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>231</v>
+      </c>
+      <c r="D220" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>232</v>
+      </c>
+      <c r="D221" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>233</v>
+      </c>
+      <c r="D222" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>234</v>
+      </c>
+      <c r="D223" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>235</v>
+      </c>
+      <c r="D224" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>236</v>
+      </c>
+      <c r="D225" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>237</v>
+      </c>
+      <c r="D226" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>238</v>
+      </c>
+      <c r="D227" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>239</v>
+      </c>
+      <c r="D228" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>240</v>
+      </c>
+      <c r="D229" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>241</v>
+      </c>
+      <c r="D230" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>242</v>
+      </c>
+      <c r="B231">
+        <v>5</v>
+      </c>
+      <c r="D231" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>243</v>
+      </c>
+      <c r="B232">
+        <v>6</v>
+      </c>
+      <c r="D232" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>244</v>
+      </c>
+      <c r="B233">
+        <v>6</v>
+      </c>
+      <c r="D233" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>245</v>
+      </c>
+      <c r="B234">
+        <v>5</v>
+      </c>
+      <c r="D234" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>246</v>
+      </c>
+      <c r="D235" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>247</v>
+      </c>
+      <c r="D236" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>248</v>
+      </c>
+      <c r="D237" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>249</v>
+      </c>
+      <c r="D238" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>250</v>
+      </c>
+      <c r="D239" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>251</v>
+      </c>
+      <c r="B240">
+        <v>5</v>
+      </c>
+      <c r="D240" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>252</v>
+      </c>
+      <c r="D241" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>253</v>
+      </c>
+      <c r="D242" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>254</v>
+      </c>
+      <c r="D243" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>255</v>
+      </c>
+      <c r="D244" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>256</v>
+      </c>
+      <c r="D245" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>257</v>
+      </c>
+      <c r="D246" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>258</v>
+      </c>
+      <c r="D247" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>259</v>
+      </c>
+      <c r="D248" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>260</v>
+      </c>
+      <c r="B249">
+        <v>6</v>
+      </c>
+      <c r="D249" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>261</v>
+      </c>
+      <c r="D250" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>262</v>
+      </c>
+      <c r="D251" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>263</v>
+      </c>
+      <c r="D252" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>264</v>
+      </c>
+      <c r="D253" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>265</v>
+      </c>
+      <c r="D254" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>266</v>
+      </c>
+      <c r="D255" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>267</v>
+      </c>
+      <c r="D256" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>268</v>
+      </c>
+      <c r="D257" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>269</v>
+      </c>
+      <c r="D258" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>270</v>
+      </c>
+      <c r="D259" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>271</v>
+      </c>
+      <c r="D260" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>272</v>
+      </c>
+      <c r="B261">
+        <v>6</v>
+      </c>
+      <c r="D261" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>273</v>
+      </c>
+      <c r="D262" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>274</v>
+      </c>
+      <c r="D263" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>275</v>
+      </c>
+      <c r="D264" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>276</v>
+      </c>
+      <c r="D265" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>277</v>
+      </c>
+      <c r="D266" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>278</v>
+      </c>
+      <c r="B267">
+        <v>5</v>
+      </c>
+      <c r="D267" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>279</v>
+      </c>
+      <c r="D268" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>280</v>
+      </c>
+      <c r="D269" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>281</v>
+      </c>
+      <c r="D270" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>282</v>
+      </c>
+      <c r="D271" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>283</v>
+      </c>
+      <c r="D272" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>284</v>
+      </c>
+      <c r="D273" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>285</v>
+      </c>
+      <c r="D274" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>286</v>
+      </c>
+      <c r="D275" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>287</v>
+      </c>
+      <c r="D276" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>288</v>
+      </c>
+      <c r="B277">
+        <v>5</v>
+      </c>
+      <c r="D277" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>289</v>
+      </c>
+      <c r="B278">
+        <v>6</v>
+      </c>
+      <c r="D278" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>290</v>
+      </c>
+      <c r="D279" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>291</v>
+      </c>
+      <c r="D280" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>292</v>
+      </c>
+      <c r="D281" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>293</v>
+      </c>
+      <c r="B282">
+        <v>5</v>
+      </c>
+      <c r="D282" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>294</v>
+      </c>
+      <c r="B283">
+        <v>6</v>
+      </c>
+      <c r="D283" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>295</v>
+      </c>
+      <c r="D284" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>296</v>
+      </c>
+      <c r="D285" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>297</v>
+      </c>
+      <c r="D286" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>298</v>
+      </c>
+      <c r="B287">
+        <v>5</v>
+      </c>
+      <c r="D287" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>299</v>
+      </c>
+      <c r="B288">
+        <v>6</v>
+      </c>
+      <c r="D288" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>300</v>
+      </c>
+      <c r="D289" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>301</v>
+      </c>
+      <c r="D290" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>302</v>
+      </c>
+      <c r="D291" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>303</v>
+      </c>
+      <c r="D292" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>304</v>
+      </c>
+      <c r="D293" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>305</v>
+      </c>
+      <c r="D294" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>306</v>
+      </c>
+      <c r="D295" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>307</v>
+      </c>
+      <c r="B296">
+        <v>5</v>
+      </c>
+      <c r="D296" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>308</v>
+      </c>
+      <c r="B297">
+        <v>5</v>
+      </c>
+      <c r="D297" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>309</v>
+      </c>
+      <c r="B298">
+        <v>6</v>
+      </c>
+      <c r="D298" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>310</v>
+      </c>
+      <c r="D299" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>311</v>
+      </c>
+      <c r="D300" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>312</v>
+      </c>
+      <c r="D301" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>313</v>
+      </c>
+      <c r="D302" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>314</v>
+      </c>
+      <c r="D303" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>315</v>
+      </c>
+      <c r="D304" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>316</v>
+      </c>
+      <c r="D305" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>317</v>
+      </c>
+      <c r="D306" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>318</v>
+      </c>
+      <c r="B307">
+        <v>6</v>
+      </c>
+      <c r="D307" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>319</v>
+      </c>
+      <c r="D308" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>320</v>
+      </c>
+      <c r="D309" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>321</v>
+      </c>
+      <c r="B310">
+        <v>5</v>
+      </c>
+      <c r="D310" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>322</v>
+      </c>
+      <c r="B311">
+        <v>6</v>
+      </c>
+      <c r="D311" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>323</v>
+      </c>
+      <c r="D312" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>324</v>
+      </c>
+      <c r="D313" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>325</v>
+      </c>
+      <c r="D314" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>326</v>
+      </c>
+      <c r="D315" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>327</v>
+      </c>
+      <c r="D316" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>328</v>
+      </c>
+      <c r="D317" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>329</v>
+      </c>
+      <c r="D318" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>330</v>
+      </c>
+      <c r="D319" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>331</v>
+      </c>
+      <c r="D320" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>332</v>
+      </c>
+      <c r="D321" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>333</v>
+      </c>
+      <c r="D322" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>334</v>
+      </c>
+      <c r="D323" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>335</v>
+      </c>
+      <c r="D324" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>336</v>
+      </c>
+      <c r="D325" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>337</v>
+      </c>
+      <c r="D326" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>338</v>
+      </c>
+      <c r="D327" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>339</v>
+      </c>
+      <c r="D328" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>340</v>
+      </c>
+      <c r="D329" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>341</v>
+      </c>
+      <c r="D330" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>342</v>
+      </c>
+      <c r="D331" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>343</v>
+      </c>
+      <c r="D332" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>344</v>
+      </c>
+      <c r="D333" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>345</v>
+      </c>
+      <c r="D334" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>346</v>
+      </c>
+      <c r="D335" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>347</v>
+      </c>
+      <c r="D336" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>348</v>
+      </c>
+      <c r="D337" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>349</v>
+      </c>
+      <c r="D338" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>350</v>
+      </c>
+      <c r="D339" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>351</v>
+      </c>
+      <c r="D340" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>352</v>
+      </c>
+      <c r="D341" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>353</v>
+      </c>
+      <c r="D342" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>354</v>
+      </c>
+      <c r="D343" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>355</v>
+      </c>
+      <c r="D344" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>356</v>
+      </c>
+      <c r="D345" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>357</v>
+      </c>
+      <c r="D346" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>358</v>
+      </c>
+      <c r="D347" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>359</v>
+      </c>
+      <c r="D348" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>360</v>
+      </c>
+      <c r="D349" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -454,29 +5619,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3011081-2ABB-40F0-AABE-B141A3E59C60}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -484,38 +5646,34 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>709</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -523,10 +5681,52 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B904-1C3B-4EFE-BEA5-65D37D221924}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
